--- a/community_export_nb.xlsx
+++ b/community_export_nb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47922ECD-A5BB-8941-80A6-52AE4C8CCFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489292AA-E5F7-E445-A57E-CC9A0EC48597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,28 +539,35 @@
     <t>{.3.3.11.3}</t>
   </si>
   <si>
-    <t>{.3.3.11.1.4}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.1}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.2}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.3}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.4}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.5}</t>
-  </si>
-  <si>
-    <t>{.3.3.11.1.4.6}</t>
-  </si>
-  <si>
     <t>{.communityName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.2}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.3}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.5}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.3.3.11.4.6}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CQ1" sqref="CQ1:CQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -938,6 +945,12 @@
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="11" width="13.83203125" customWidth="1"/>
+    <col min="91" max="91" width="14.1640625" customWidth="1"/>
+    <col min="92" max="92" width="12.83203125" customWidth="1"/>
+    <col min="93" max="93" width="13" customWidth="1"/>
+    <col min="94" max="94" width="12.6640625" customWidth="1"/>
+    <col min="95" max="95" width="12.1640625" customWidth="1"/>
+    <col min="96" max="96" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="42" customHeight="1">
@@ -1232,7 +1245,7 @@
     </row>
     <row r="2" spans="1:96" s="2" customFormat="1" ht="44" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>84</v>
@@ -1499,25 +1512,25 @@
         <v>171</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/community_export_nb.xlsx
+++ b/community_export_nb.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489292AA-E5F7-E445-A57E-CC9A0EC48597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="184">
   <si>
     <t>社区名</t>
   </si>
@@ -275,6 +270,9 @@
     <t>智慧安全管理不到位</t>
   </si>
   <si>
+    <t>{.communityName}</t>
+  </si>
+  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -539,43 +537,50 @@
     <t>{.3.3.11.3}</t>
   </si>
   <si>
-    <t>{.communityName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{.3.3.11.4}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.1}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.2}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.3}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.4}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.5}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{.3.3.11.4.6}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>点位</t>
+  </si>
+  <si>
+    <t>{.indicatorName}</t>
+  </si>
+  <si>
+    <t>{.location}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -588,43 +593,384 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -632,43 +978,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -926,615 +1567,697 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CQ1" sqref="CQ1:CQ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="11" width="13.83203125" customWidth="1"/>
-    <col min="91" max="91" width="14.1640625" customWidth="1"/>
-    <col min="92" max="92" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1615384615385" customWidth="1"/>
+    <col min="3" max="3" width="14.1615384615385" customWidth="1"/>
+    <col min="4" max="4" width="14.3307692307692" customWidth="1"/>
+    <col min="5" max="11" width="13.8307692307692" customWidth="1"/>
+    <col min="91" max="91" width="14.1615384615385" customWidth="1"/>
+    <col min="92" max="92" width="12.8307692307692" customWidth="1"/>
     <col min="93" max="93" width="13" customWidth="1"/>
-    <col min="94" max="94" width="12.6640625" customWidth="1"/>
-    <col min="95" max="95" width="12.1640625" customWidth="1"/>
-    <col min="96" max="96" width="13.33203125" customWidth="1"/>
+    <col min="94" max="94" width="12.6615384615385" customWidth="1"/>
+    <col min="95" max="95" width="12.1615384615385" customWidth="1"/>
+    <col min="96" max="96" width="13.3307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:96">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="2" customFormat="1" ht="44" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="7" customFormat="1" ht="44" customHeight="1" spans="1:96">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CL2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CM2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CN2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CO2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CP2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CR2" s="7" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.6923076923077" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="14.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="13.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="17.8461538461538" customWidth="1"/>
+    <col min="6" max="6" width="22.2307692307692" customWidth="1"/>
+    <col min="7" max="7" width="21.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="44" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>